--- a/tutorials/activity_browser/exercise 1/solution/lci-passenger-cars_v2.xlsx
+++ b/tutorials/activity_browser/exercise 1/solution/lci-passenger-cars_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662830B-73C6-FA4B-B77A-FC0713BB09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA227722-F41B-B44C-A8D1-B1FDFCB1F851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="211">
   <si>
     <t>Activity</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>h2_consumption*h2_electrolysis_share/100</t>
+  </si>
+  <si>
+    <t>h2-electrolysis</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3081,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>16</v>
